--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3987.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3987.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.274823781544585</v>
+        <v>0.8917768001556396</v>
       </c>
       <c r="B1">
-        <v>2.719591165817479</v>
+        <v>1.570632338523865</v>
       </c>
       <c r="C1">
-        <v>4.85390223540265</v>
+        <v>5.118063449859619</v>
       </c>
       <c r="D1">
-        <v>3.308179309109448</v>
+        <v>4.781161308288574</v>
       </c>
       <c r="E1">
-        <v>1.325250804428826</v>
+        <v>1.481326103210449</v>
       </c>
     </row>
   </sheetData>
